--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2281.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2281.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.142663151942324</v>
+        <v>1.196254014968872</v>
       </c>
       <c r="B1">
-        <v>3.003328315482719</v>
+        <v>2.482172012329102</v>
       </c>
       <c r="C1">
-        <v>4.327178437547477</v>
+        <v>4.134514808654785</v>
       </c>
       <c r="D1">
-        <v>3.291554365395402</v>
+        <v>2.089826583862305</v>
       </c>
       <c r="E1">
-        <v>1.220206050357253</v>
+        <v>1.183972597122192</v>
       </c>
     </row>
   </sheetData>
